--- a/Jogos_do_Dia/2023-09-21_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-21_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -642,25 +642,25 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="I2" t="n">
         <v>2.55</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="M2" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="N2" t="n">
         <v>2.5</v>
@@ -669,25 +669,25 @@
         <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="R2" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="T2" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="U2" t="n">
         <v>1.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -705,16 +705,16 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AC2" t="n">
         <v>7</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AF2" t="n">
         <v>1.71</v>
@@ -723,10 +723,10 @@
         <v>2.12</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="3">
@@ -757,52 +757,52 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="W3" t="n">
         <v>1.33</v>
@@ -872,91 +872,91 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
         <v>2.4</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="5">
@@ -987,52 +987,52 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="N5" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="R5" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="S5" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="U5" t="n">
         <v>1.28</v>
       </c>
       <c r="V5" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1050,28 +1050,28 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="6">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="J6" t="n">
         <v>1.06</v>
@@ -1123,10 +1123,10 @@
         <v>3.1</v>
       </c>
       <c r="N6" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="P6" t="n">
         <v>1.45</v>
@@ -1165,28 +1165,28 @@
         <v>3.21</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="7">
@@ -1447,13 +1447,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1468,10 +1468,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O9" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1677,13 +1677,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1698,10 +1698,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1877,6 +1877,121 @@
       </c>
       <c r="AI12" t="n">
         <v>3.8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>24</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Grêmio</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-09-21_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-21_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="H2" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="I2" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J2" t="n">
         <v>1.1</v>
@@ -663,10 +663,10 @@
         <v>2.48</v>
       </c>
       <c r="N2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P2" t="n">
         <v>1.58</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -705,13 +705,13 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="AC2" t="n">
         <v>7</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AE2" t="n">
         <v>1.4</v>
@@ -757,13 +757,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="H3" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="I3" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.5</v>
       </c>
       <c r="J3" t="n">
         <v>1.02</v>
@@ -778,10 +778,10 @@
         <v>3.35</v>
       </c>
       <c r="N3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O3" t="n">
         <v>1.9</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.83</v>
       </c>
       <c r="P3" t="n">
         <v>1.38</v>
@@ -805,7 +805,7 @@
         <v>1.77</v>
       </c>
       <c r="W3" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -872,13 +872,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="J4" t="n">
         <v>1.04</v>
@@ -893,10 +893,10 @@
         <v>2.88</v>
       </c>
       <c r="N4" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O4" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="P4" t="n">
         <v>1.46</v>
@@ -935,13 +935,13 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AC4" t="n">
         <v>7</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="AE4" t="n">
         <v>1.29</v>
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="J5" t="n">
         <v>1.01</v>
@@ -1008,7 +1008,7 @@
         <v>3.34</v>
       </c>
       <c r="N5" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="O5" t="n">
         <v>1.85</v>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="I6" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="J6" t="n">
         <v>1.06</v>
@@ -1123,10 +1123,10 @@
         <v>3.1</v>
       </c>
       <c r="N6" t="n">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="O6" t="n">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="P6" t="n">
         <v>1.45</v>
@@ -1447,52 +1447,52 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3.31</v>
       </c>
       <c r="I9" t="n">
-        <v>4.2</v>
+        <v>4.38</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="N9" t="n">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="O9" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="W9" t="n">
         <v>1.18</v>
@@ -1510,28 +1510,28 @@
         <v>2.95</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AC9" t="n">
         <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="10">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>3.4</v>
+        <v>3.98</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="N11" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R11" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="W11" t="n">
         <v>2.08</v>
@@ -1740,28 +1740,28 @@
         <v>3.19</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AC11" t="n">
         <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.43</v>
+        <v>2.65</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AG11" t="n">
         <v>1.83</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="12">
@@ -1907,52 +1907,52 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>2.5</v>
+        <v>2.39</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="N13" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="O13" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R13" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S13" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="W13" t="n">
         <v>2.42</v>
@@ -1970,28 +1970,28 @@
         <v>3.28</v>
       </c>
       <c r="AB13" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="AC13" t="n">
         <v>8</v>
       </c>
       <c r="AD13" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
